--- a/ontology/ontology_tables/material_ontology.xlsx
+++ b/ontology/ontology_tables/material_ontology.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/q436477/Projekte/knowledge_agents/ontology/ontology_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9E679-B1A7-8949-8ED5-384A3FBBB68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="35600" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="252">
   <si>
     <t>type</t>
   </si>
@@ -199,9 +205,6 @@
     <t>liquid material</t>
   </si>
   <si>
-    <t>Building material</t>
-  </si>
-  <si>
     <t>ceramic material</t>
   </si>
   <si>
@@ -755,13 +758,31 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Solid</t>
+  </si>
+  <si>
+    <t>raw material id</t>
+  </si>
+  <si>
+    <t>raw material name</t>
+  </si>
+  <si>
+    <t>material flow</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>raw material flow</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Material_flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +809,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -830,23 +857,23 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF800080"/>
       </font>
     </dxf>
     <dxf>
@@ -856,16 +883,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF800080"/>
+        <b/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,9 +975,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,6 +1027,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1148,17 +1220,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="13" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,12 +1313,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1268,25 +1342,25 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1297,16 +1371,16 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1317,10 +1391,10 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,10 +1405,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1342,25 +1416,25 @@
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,13 +1442,13 @@
         <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,10 +1459,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1399,1266 +1473,1322 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="G81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1" t="s">
+      <c r="J96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1" t="s">
+      <c r="L99" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1" t="s">
+      <c r="G115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M113" s="3" t="s">
+      <c r="J116" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M116" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M114" s="3" t="s">
+      <c r="K118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M118" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="H119" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L122" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M116" s="3" t="s">
+      <c r="M122" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G120" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M120" s="3" t="s">
+      <c r="L123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M123" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M121" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M123" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M124" s="3" t="s">
+      <c r="M127" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G125" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M125" s="3" t="s">
+      <c r="M128" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G126" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M126" s="3" t="s">
+      <c r="I129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M129" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M127" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M128" s="3" t="s">
+      <c r="M131" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A999">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:A1001">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"relation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"attribute"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location=""/>
-    <hyperlink ref="M12" r:id="rId2"/>
-    <hyperlink ref="M17" r:id="rId3"/>
-    <hyperlink ref="M22" r:id="rId4"/>
-    <hyperlink ref="M24" r:id="rId5"/>
-    <hyperlink ref="M29" r:id="rId6"/>
-    <hyperlink ref="M44" r:id="rId7"/>
-    <hyperlink ref="M45" r:id="rId8"/>
-    <hyperlink ref="M46" r:id="rId9"/>
-    <hyperlink ref="M49" r:id="rId10"/>
-    <hyperlink ref="M57" r:id="rId11"/>
-    <hyperlink ref="M59" r:id="rId12"/>
-    <hyperlink ref="M60" r:id="rId13"/>
-    <hyperlink ref="M61" r:id="rId14"/>
-    <hyperlink ref="M62" r:id="rId15"/>
-    <hyperlink ref="M64" r:id="rId16"/>
-    <hyperlink ref="M65" r:id="rId17"/>
-    <hyperlink ref="M66" r:id="rId18"/>
-    <hyperlink ref="M67" r:id="rId19"/>
-    <hyperlink ref="M68" r:id="rId20"/>
-    <hyperlink ref="M70" r:id="rId21"/>
-    <hyperlink ref="M72" r:id="rId22"/>
-    <hyperlink ref="M79" r:id="rId23"/>
-    <hyperlink ref="M94" r:id="rId24"/>
-    <hyperlink ref="M113" r:id="rId25"/>
-    <hyperlink ref="M114" r:id="rId26"/>
-    <hyperlink ref="M116" r:id="rId27"/>
-    <hyperlink ref="M120" r:id="rId28"/>
-    <hyperlink ref="M121" r:id="rId29"/>
-    <hyperlink ref="M122" r:id="rId30"/>
-    <hyperlink ref="M123" r:id="rId31"/>
-    <hyperlink ref="M124" r:id="rId32"/>
-    <hyperlink ref="M125" r:id="rId33"/>
-    <hyperlink ref="M126" r:id="rId34"/>
-    <hyperlink ref="M127" r:id="rId35"/>
-    <hyperlink ref="M128" r:id="rId36"/>
-    <hyperlink ref="M129" r:id="rId37"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M46" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M47" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M51" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M61" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M63" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M64" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M66" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M67" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M68" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M69" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M70" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M72" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M74" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M81" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M96" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M115" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M116" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M118" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M122" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M123" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M124" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M125" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M126" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M127" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M128" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M129" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M130" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M131" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
